--- a/data/trans_bre/P31_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,72</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>213,92%</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>259,84%</t>
+          <t>175,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>263,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>239,96%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 12,66</t>
+          <t>-3,52; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 29,77</t>
+          <t>10,18; 26,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 12,68</t>
+          <t>-1,54; 15,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 22,9</t>
+          <t>5,76; 23,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 191,98</t>
+          <t>-6,34; 13,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,53; 475,89</t>
+          <t>5,46; 20,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 279,62</t>
+          <t>-25,45; 176,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,14; 840,33</t>
+          <t>65,0; 428,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 344,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>55,12; 904,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-32,95; 172,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45,05; 834,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,9%</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>-36,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 1,17</t>
+          <t>-22,19; 1,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 16,95</t>
+          <t>-0,88; 17,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 14,6</t>
+          <t>-9,41; 14,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 16,31</t>
+          <t>-2,05; 16,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,47; 7,61</t>
+          <t>-1,14; 17,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 100,63</t>
+          <t>2,72; 19,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 118,12</t>
+          <t>-63,36; 6,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 198,99</t>
+          <t>-4,64; 101,18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; 118,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 176,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 165,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 239,56</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,36</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>74,44%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>45,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>56,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 10,87</t>
+          <t>-4,84; 12,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 21,8</t>
+          <t>8,27; 23,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 16,79</t>
+          <t>1,45; 16,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 18,11</t>
+          <t>0,89; 17,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 67,15</t>
+          <t>-0,1; 17,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 122,8</t>
+          <t>-5,19; 12,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 105,27</t>
+          <t>-18,46; 77,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 105,44</t>
+          <t>31,62; 137,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 97,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 101,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 152,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 70,5</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 13,81</t>
+          <t>0,41; 13,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 14,41</t>
+          <t>0,4; 14,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 7,25</t>
+          <t>-7,22; 7,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 13,61</t>
+          <t>-2,48; 14,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 129,29</t>
+          <t>1,13; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 70,74</t>
+          <t>6,8; 20,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 30,77</t>
+          <t>1,22; 120,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 69,28</t>
+          <t>1,05; 72,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; 31,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 75,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 102,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37,24; 198,69</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>105,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>36,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49,18%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34,7%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 20,3</t>
+          <t>5,63; 20,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,32</t>
+          <t>-0,12; 14,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,92</t>
+          <t>2,28; 17,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 16,05</t>
+          <t>-3,13; 15,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,92; 217,03</t>
+          <t>-5,11; 13,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 98,56</t>
+          <t>-2,71; 14,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 98,83</t>
+          <t>36,82; 223,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 84,8</t>
+          <t>-0,62; 84,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 107,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 82,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 61,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 105,36</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>15,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>17,83</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>18,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>100,91%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>84,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,32%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 20,92</t>
+          <t>3,58; 24,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 20,8</t>
+          <t>0,55; 21,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 25,42</t>
+          <t>6,54; 27,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 30,82</t>
+          <t>6,49; 31,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 100,18</t>
+          <t>5,2; 27,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 89,66</t>
+          <t>-2,35; 20,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,64; 192,93</t>
+          <t>7,78; 123,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 182,13</t>
+          <t>1,01; 97,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 197,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 195,14</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 167,09</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 153,03</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>57,24%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>57,89%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,96</t>
+          <t>2,09; 10,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 15,7</t>
+          <t>8,68; 15,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,31</t>
+          <t>4,98; 12,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,8</t>
+          <t>6,94; 14,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 53,96</t>
+          <t>5,45; 13,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,42; 79,5</t>
+          <t>5,63; 12,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,99; 65,29</t>
+          <t>9,72; 61,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,5; 86,32</t>
+          <t>38,16; 82,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 69,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34,09; 87,25</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 77,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32,7; 95,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
